--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_hydroror.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_hydroror.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9EB881-472B-394F-AFD1-D2995F056AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834D2C3-7168-524B-BD07-1D07BE040C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="71">
   <si>
     <t>Name:</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -669,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -845,25 +851,18 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -873,16 +872,22 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -894,16 +899,13 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -918,22 +920,19 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="4">
-        <v>22200</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>53</v>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -945,16 +944,22 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
+      <c r="G14" s="4">
+        <v>22200</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -966,19 +971,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>0.84</v>
+      <c r="H15" t="s">
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -990,52 +992,47 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
+        <v>0.84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
-      </c>
-      <c r="G17">
-        <v>13561</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1049,10 +1046,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
-        <v>13898</v>
+        <v>13561</v>
       </c>
       <c r="H18" t="s">
         <v>52</v>
@@ -1064,7 +1061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1078,10 +1075,10 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>15219</v>
+        <v>13898</v>
       </c>
       <c r="H19" t="s">
         <v>52</v>
@@ -1093,7 +1090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1107,10 +1104,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>15451</v>
+        <v>15219</v>
       </c>
       <c r="H20" t="s">
         <v>52</v>
@@ -1122,7 +1119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1136,10 +1133,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>16590</v>
+        <v>15451</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -1151,7 +1148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1165,10 +1162,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>16148</v>
+        <v>16590</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1180,7 +1177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1194,10 +1191,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>13669</v>
+        <v>16148</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1209,7 +1206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1223,10 +1220,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>14695</v>
+        <v>13669</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1238,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1252,10 +1249,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>14966</v>
+        <v>14695</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -1267,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1281,10 +1278,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>16640</v>
+        <v>14966</v>
       </c>
       <c r="H26" t="s">
         <v>52</v>
@@ -1296,7 +1293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1310,10 +1307,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>17566</v>
+        <v>16640</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -1325,7 +1322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1339,10 +1336,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>17751</v>
+        <v>17566</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
@@ -1354,7 +1351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1368,10 +1365,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>17625</v>
+        <v>17751</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
@@ -1383,7 +1380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1397,10 +1394,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>15398</v>
+        <v>17625</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -1412,7 +1409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1426,10 +1423,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>16039</v>
+        <v>15398</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -1441,7 +1438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1455,10 +1452,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>14998</v>
+        <v>16039</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -1470,7 +1467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1484,10 +1481,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>15819</v>
+        <v>14998</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -1499,7 +1496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1513,10 +1510,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>16547</v>
+        <v>15819</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -1528,7 +1525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1542,10 +1539,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>16686</v>
+        <v>16547</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -1557,7 +1554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1571,10 +1568,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>16110</v>
+        <v>16686</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -1586,7 +1583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1600,10 +1597,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>16030</v>
+        <v>16110</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -1615,7 +1612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1629,10 +1626,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>14733</v>
+        <v>16030</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -1644,7 +1641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1658,10 +1655,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>17832</v>
+        <v>14733</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -1673,7 +1670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1687,10 +1684,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>17759</v>
+        <v>17832</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -1702,7 +1699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1716,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>17243</v>
+        <v>17759</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -1731,7 +1728,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1745,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>16595</v>
+        <v>17243</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -1760,7 +1757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1774,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>16574</v>
+        <v>16595</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -1789,7 +1786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1803,10 +1800,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>15946</v>
+        <v>16574</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -1818,7 +1815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1832,10 +1829,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>16908</v>
+        <v>15946</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -1847,7 +1844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1861,10 +1858,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>17700</v>
+        <v>16908</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -1876,7 +1873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1884,25 +1881,28 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>3292</v>
+        <v>17700</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>3292</v>
@@ -1927,12 +1927,6 @@
       <c r="I48" t="s">
         <v>47</v>
       </c>
-      <c r="J48" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1948,7 +1942,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>3292</v>
@@ -1959,6 +1953,12 @@
       <c r="I49" t="s">
         <v>47</v>
       </c>
+      <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>3292</v>
@@ -2000,7 +2000,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>3292</v>
@@ -2026,7 +2026,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
         <v>3292</v>
@@ -2052,22 +2052,16 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>3381</v>
+        <v>3292</v>
       </c>
       <c r="H53" t="s">
         <v>57</v>
       </c>
       <c r="I53" t="s">
         <v>47</v>
-      </c>
-      <c r="J53" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2084,7 +2078,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
         <v>3381</v>
@@ -2095,6 +2089,12 @@
       <c r="I54" t="s">
         <v>47</v>
       </c>
+      <c r="J54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2110,7 +2110,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
         <v>3381</v>
@@ -2136,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
         <v>3381</v>
@@ -2162,7 +2162,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
         <v>3381</v>
@@ -2188,22 +2188,16 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>3475</v>
+        <v>3381</v>
       </c>
       <c r="H58" t="s">
         <v>57</v>
       </c>
       <c r="I58" t="s">
         <v>47</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2220,7 +2214,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
         <v>3475</v>
@@ -2231,6 +2225,12 @@
       <c r="I59" t="s">
         <v>47</v>
       </c>
+      <c r="J59" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2246,7 +2246,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
         <v>3475</v>
@@ -2272,7 +2272,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
         <v>3475</v>
@@ -2298,7 +2298,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
         <v>3475</v>
@@ -2324,19 +2324,16 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>3640</v>
+        <v>3475</v>
       </c>
       <c r="H63" t="s">
         <v>57</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
-      </c>
-      <c r="J63" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2353,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>3640</v>
@@ -2364,6 +2361,9 @@
       <c r="I64" t="s">
         <v>47</v>
       </c>
+      <c r="J64" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -2379,19 +2379,16 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>3657.8</v>
+        <v>3640</v>
       </c>
       <c r="H65" t="s">
         <v>57</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
-      </c>
-      <c r="J65" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,7 +2405,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
         <v>3657.8</v>
@@ -2419,6 +2416,9 @@
       <c r="I66" t="s">
         <v>47</v>
       </c>
+      <c r="J66" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -2434,19 +2434,16 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>3768.02</v>
+        <v>3657.8</v>
       </c>
       <c r="H67" t="s">
         <v>57</v>
       </c>
       <c r="I67" t="s">
         <v>47</v>
-      </c>
-      <c r="J67" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2463,10 +2460,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>3810.03</v>
+        <v>3768.02</v>
       </c>
       <c r="H68" t="s">
         <v>57</v>
@@ -2492,10 +2489,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>3839.85</v>
+        <v>3810.03</v>
       </c>
       <c r="H69" t="s">
         <v>57</v>
@@ -2521,10 +2518,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>3853.55</v>
+        <v>3839.85</v>
       </c>
       <c r="H70" t="s">
         <v>57</v>
@@ -2550,10 +2547,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
-        <v>3893.73</v>
+        <v>3853.55</v>
       </c>
       <c r="H71" t="s">
         <v>57</v>
@@ -2579,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
-        <v>3941.32</v>
+        <v>3893.73</v>
       </c>
       <c r="H72" t="s">
         <v>57</v>
@@ -2608,10 +2605,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>4004.07</v>
+        <v>3941.32</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
@@ -2637,10 +2634,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
-        <v>4053.2</v>
+        <v>4004.07</v>
       </c>
       <c r="H74" t="s">
         <v>57</v>
@@ -2666,10 +2663,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
-        <v>4132.76</v>
+        <v>4053.2</v>
       </c>
       <c r="H75" t="s">
         <v>57</v>
@@ -2695,10 +2692,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
-        <v>4161.6499999999996</v>
+        <v>4132.76</v>
       </c>
       <c r="H76" t="s">
         <v>57</v>
@@ -2718,16 +2715,16 @@
         <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>4161.6499999999996</v>
       </c>
       <c r="H77" t="s">
         <v>57</v>
@@ -2735,8 +2732,8 @@
       <c r="I77" t="s">
         <v>47</v>
       </c>
-      <c r="L77" t="s">
-        <v>61</v>
+      <c r="J77" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2753,7 +2750,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2782,7 +2779,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2811,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2840,7 +2837,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2869,7 +2866,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2898,10 +2895,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>57</v>
@@ -2927,10 +2924,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s">
         <v>57</v>
@@ -2956,7 +2953,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2985,7 +2982,7 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3014,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3043,10 +3040,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>57</v>
@@ -3072,10 +3069,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
@@ -3101,7 +3098,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3130,7 +3127,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3159,7 +3156,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3188,10 +3185,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>57</v>
@@ -3217,10 +3214,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="H94" t="s">
         <v>57</v>
@@ -3246,10 +3243,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>57</v>
@@ -3275,10 +3272,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
@@ -3304,10 +3301,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>110.22</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>57</v>
@@ -3333,10 +3330,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>42.01</v>
+        <v>110.22</v>
       </c>
       <c r="H98" t="s">
         <v>57</v>
@@ -3362,10 +3359,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>29.82</v>
+        <v>42.01</v>
       </c>
       <c r="H99" t="s">
         <v>57</v>
@@ -3391,10 +3388,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>13.7</v>
+        <v>29.82</v>
       </c>
       <c r="H100" t="s">
         <v>57</v>
@@ -3420,10 +3417,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>40.18</v>
+        <v>13.7</v>
       </c>
       <c r="H101" t="s">
         <v>57</v>
@@ -3449,10 +3446,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>47.59</v>
+        <v>40.18</v>
       </c>
       <c r="H102" t="s">
         <v>57</v>
@@ -3478,10 +3475,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>62.75</v>
+        <v>47.59</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
@@ -3507,10 +3504,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>49.13</v>
+        <v>62.75</v>
       </c>
       <c r="H104" t="s">
         <v>57</v>
@@ -3536,10 +3533,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
-        <v>79.56</v>
+        <v>49.13</v>
       </c>
       <c r="H105" t="s">
         <v>57</v>
@@ -3565,10 +3562,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
-        <v>28.89</v>
+        <v>79.56</v>
       </c>
       <c r="H106" t="s">
         <v>57</v>
@@ -3588,16 +3585,16 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="H107" t="s">
         <v>57</v>
@@ -3623,7 +3620,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3652,7 +3649,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3681,7 +3678,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3710,7 +3707,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3739,7 +3736,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3768,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3797,7 +3794,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3826,7 +3823,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3855,7 +3852,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3884,7 +3881,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3913,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3942,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3971,7 +3968,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4000,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4029,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4058,7 +4055,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4087,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4116,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4145,7 +4142,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4174,7 +4171,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4203,7 +4200,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4232,7 +4229,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4261,7 +4258,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4290,7 +4287,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4319,7 +4316,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4348,7 +4345,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4377,7 +4374,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4406,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4435,7 +4432,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4458,16 +4455,25 @@
         <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>57</v>
       </c>
       <c r="I137" t="s">
         <v>47</v>
+      </c>
+      <c r="L137" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4484,7 +4490,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
@@ -4504,7 +4510,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
@@ -4524,7 +4530,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4544,7 +4550,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4564,7 +4570,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4584,7 +4590,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4604,7 +4610,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4624,7 +4630,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4644,7 +4650,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4664,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4684,7 +4690,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4704,7 +4710,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4724,7 +4730,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4744,7 +4750,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4764,7 +4770,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4784,7 +4790,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4804,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4824,7 +4830,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4844,7 +4850,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4864,7 +4870,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -4884,7 +4890,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -4904,7 +4910,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -4924,7 +4930,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -4944,22 +4950,10 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
-      </c>
-      <c r="G161">
-        <v>82.5</v>
-      </c>
-      <c r="H161" t="s">
-        <v>62</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
-      </c>
-      <c r="J161" t="s">
-        <v>63</v>
-      </c>
-      <c r="L161" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -4976,10 +4970,22 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G162">
+        <v>82.5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>62</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
+      </c>
+      <c r="J162" t="s">
+        <v>63</v>
+      </c>
+      <c r="L162" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -4996,7 +5002,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5016,7 +5022,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5036,7 +5042,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5056,7 +5062,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5070,13 +5076,13 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5096,7 +5102,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5116,7 +5122,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5136,7 +5142,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5156,7 +5162,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5176,7 +5182,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5196,7 +5202,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5216,7 +5222,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5236,7 +5242,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5256,7 +5262,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5276,7 +5282,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5296,7 +5302,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5316,7 +5322,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5336,7 +5342,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5356,7 +5362,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5376,7 +5382,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5396,7 +5402,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5416,7 +5422,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5436,7 +5442,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5456,7 +5462,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5476,7 +5482,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5496,7 +5502,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5516,7 +5522,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5536,7 +5542,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5556,22 +5562,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
-      </c>
-      <c r="G191">
-        <v>5500</v>
-      </c>
-      <c r="H191" t="s">
-        <v>62</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
-      </c>
-      <c r="J191" t="s">
-        <v>63</v>
-      </c>
-      <c r="L191" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -5588,10 +5582,22 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G192">
+        <v>5500</v>
+      </c>
+      <c r="H192" t="s">
+        <v>62</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
+      </c>
+      <c r="J192" t="s">
+        <v>63</v>
+      </c>
+      <c r="L192" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -5608,7 +5614,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5628,7 +5634,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -5648,7 +5654,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
@@ -5668,7 +5674,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
@@ -5682,13 +5688,13 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5708,7 +5714,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -5728,7 +5734,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -5748,7 +5754,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5768,7 +5774,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5788,7 +5794,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5808,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5828,7 +5834,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5848,7 +5854,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -5868,7 +5874,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -5888,7 +5894,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -5908,7 +5914,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -5928,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -5948,7 +5954,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -5968,7 +5974,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -5988,7 +5994,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6008,7 +6014,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6028,7 +6034,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6048,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6068,7 +6074,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6088,7 +6094,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6108,7 +6114,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6128,7 +6134,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6148,7 +6154,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6168,22 +6174,10 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
-      </c>
-      <c r="G221">
-        <v>5</v>
-      </c>
-      <c r="H221" t="s">
-        <v>65</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
-      </c>
-      <c r="J221" t="s">
-        <v>63</v>
-      </c>
-      <c r="L221" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -6200,10 +6194,22 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G222">
+        <v>5</v>
+      </c>
+      <c r="H222" t="s">
+        <v>65</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
+      </c>
+      <c r="J222" t="s">
+        <v>63</v>
+      </c>
+      <c r="L222" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6220,7 +6226,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6240,7 +6246,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6260,7 +6266,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6280,7 +6286,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6294,25 +6300,16 @@
         <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>57</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
-      </c>
-      <c r="L227" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6329,7 +6326,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6358,7 +6355,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6387,7 +6384,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6416,7 +6413,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6445,7 +6442,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6474,7 +6471,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6503,7 +6500,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6532,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6561,7 +6558,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6590,7 +6587,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6619,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6648,7 +6645,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6677,7 +6674,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6706,7 +6703,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6735,7 +6732,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6764,7 +6761,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6793,7 +6790,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6822,7 +6819,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6851,7 +6848,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6880,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6909,7 +6906,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6938,7 +6935,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6967,7 +6964,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6996,7 +6993,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7025,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7054,7 +7051,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7083,7 +7080,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7112,7 +7109,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7141,7 +7138,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7156,7 +7153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7164,25 +7161,28 @@
         <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>57</v>
       </c>
       <c r="I257" t="s">
         <v>47</v>
       </c>
-      <c r="J257" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L257" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7196,10 +7196,10 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.48193489699999997</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
@@ -7208,7 +7208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7222,10 +7222,10 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
-        <v>0.52774263899999996</v>
+        <v>0.48193489699999997</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
@@ -7234,7 +7234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7248,10 +7248,10 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
-        <v>0.53578760199999997</v>
+        <v>0.52774263899999996</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
@@ -7260,7 +7260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7274,10 +7274,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
-        <v>0.57528420899999999</v>
+        <v>0.53578760199999997</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -7286,7 +7286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7300,10 +7300,10 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
-        <v>0.55995716799999995</v>
+        <v>0.57528420899999999</v>
       </c>
       <c r="I262" t="s">
         <v>47</v>
@@ -7312,7 +7312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7326,10 +7326,10 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
-        <v>0.461516749</v>
+        <v>0.55995716799999995</v>
       </c>
       <c r="I263" t="s">
         <v>47</v>
@@ -7338,7 +7338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7352,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
-        <v>0.49615836000000002</v>
+        <v>0.461516749</v>
       </c>
       <c r="I264" t="s">
         <v>47</v>
@@ -7364,7 +7364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7378,10 +7378,10 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
-        <v>0.505308337</v>
+        <v>0.49615836000000002</v>
       </c>
       <c r="I265" t="s">
         <v>47</v>
@@ -7390,7 +7390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7404,10 +7404,10 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
-        <v>0.56182886099999996</v>
+        <v>0.505308337</v>
       </c>
       <c r="I266" t="s">
         <v>47</v>
@@ -7416,7 +7416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7430,10 +7430,10 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
-        <v>0.59309409700000004</v>
+        <v>0.56182886099999996</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
@@ -7442,7 +7442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7456,10 +7456,10 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
-        <v>0.58312801800000003</v>
+        <v>0.59309409700000004</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
@@ -7468,7 +7468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7482,10 +7482,10 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
-        <v>0.57898886400000005</v>
+        <v>0.58312801800000003</v>
       </c>
       <c r="I269" t="s">
         <v>47</v>
@@ -7494,7 +7494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7508,10 +7508,10 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
-        <v>0.50583095199999994</v>
+        <v>0.57898886400000005</v>
       </c>
       <c r="I270" t="s">
         <v>47</v>
@@ -7520,7 +7520,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7534,10 +7534,10 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
-        <v>0.52688807900000001</v>
+        <v>0.50583095199999994</v>
       </c>
       <c r="I271" t="s">
         <v>47</v>
@@ -7546,7 +7546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7560,10 +7560,10 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
-        <v>0.49269077900000002</v>
+        <v>0.52688807900000001</v>
       </c>
       <c r="I272" t="s">
         <v>47</v>
@@ -7586,10 +7586,10 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
-        <v>0.496104922</v>
+        <v>0.49269077900000002</v>
       </c>
       <c r="I273" t="s">
         <v>47</v>
@@ -7612,10 +7612,10 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
-        <v>0.51893597300000005</v>
+        <v>0.496104922</v>
       </c>
       <c r="I274" t="s">
         <v>47</v>
@@ -7638,10 +7638,10 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
-        <v>0.52074867999999996</v>
+        <v>0.51893597300000005</v>
       </c>
       <c r="I275" t="s">
         <v>47</v>
@@ -7664,10 +7664,10 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
-        <v>0.50277245800000003</v>
+        <v>0.52074867999999996</v>
       </c>
       <c r="I276" t="s">
         <v>47</v>
@@ -7690,10 +7690,10 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
-        <v>0.485641975</v>
+        <v>0.50277245800000003</v>
       </c>
       <c r="I277" t="s">
         <v>47</v>
@@ -7716,10 +7716,10 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
-        <v>0.44142679099999999</v>
+        <v>0.485641975</v>
       </c>
       <c r="I278" t="s">
         <v>47</v>
@@ -7742,10 +7742,10 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
-        <v>0.53012915599999999</v>
+        <v>0.44142679099999999</v>
       </c>
       <c r="I279" t="s">
         <v>47</v>
@@ -7768,10 +7768,10 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
-        <v>0.52608195199999996</v>
+        <v>0.53012915599999999</v>
       </c>
       <c r="I280" t="s">
         <v>47</v>
@@ -7794,10 +7794,10 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
-        <v>0.50552529199999996</v>
+        <v>0.52608195199999996</v>
       </c>
       <c r="I281" t="s">
         <v>47</v>
@@ -7820,10 +7820,10 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
-        <v>0.480652774</v>
+        <v>0.50552529199999996</v>
       </c>
       <c r="I282" t="s">
         <v>47</v>
@@ -7846,10 +7846,10 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
-        <v>0.47252149199999999</v>
+        <v>0.480652774</v>
       </c>
       <c r="I283" t="s">
         <v>47</v>
@@ -7872,10 +7872,10 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
-        <v>0.44910678799999998</v>
+        <v>0.47252149199999999</v>
       </c>
       <c r="I284" t="s">
         <v>47</v>
@@ -7898,10 +7898,10 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
-        <v>0.46703340799999998</v>
+        <v>0.44910678799999998</v>
       </c>
       <c r="I285" t="s">
         <v>47</v>
@@ -7924,10 +7924,10 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
-        <v>0.48551606800000002</v>
+        <v>0.46703340799999998</v>
       </c>
       <c r="I286" t="s">
         <v>47</v>
@@ -7944,16 +7944,16 @@
         <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.48551606800000002</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
@@ -7976,10 +7976,10 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.25941034499999999</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
@@ -8002,10 +8002,10 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
-        <v>0.285397556</v>
+        <v>0.25941034499999999</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
@@ -8028,10 +8028,10 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
-        <v>0.28045073300000001</v>
+        <v>0.285397556</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
@@ -8054,10 +8054,10 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
-        <v>0.29838635099999999</v>
+        <v>0.28045073300000001</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
@@ -8080,10 +8080,10 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
-        <v>0.302819901</v>
+        <v>0.29838635099999999</v>
       </c>
       <c r="I292" t="s">
         <v>47</v>
@@ -8106,10 +8106,10 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
-        <v>0.296544788</v>
+        <v>0.302819901</v>
       </c>
       <c r="I293" t="s">
         <v>47</v>
@@ -8132,10 +8132,10 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
-        <v>0.27977765399999999</v>
+        <v>0.296544788</v>
       </c>
       <c r="I294" t="s">
         <v>47</v>
@@ -8158,10 +8158,10 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
-        <v>0.29173744000000001</v>
+        <v>0.27977765399999999</v>
       </c>
       <c r="I295" t="s">
         <v>47</v>
@@ -8184,10 +8184,10 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
-        <v>0.314572672</v>
+        <v>0.29173744000000001</v>
       </c>
       <c r="I296" t="s">
         <v>47</v>
@@ -8210,10 +8210,10 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
-        <v>0.31207885400000002</v>
+        <v>0.314572672</v>
       </c>
       <c r="I297" t="s">
         <v>47</v>
@@ -8236,10 +8236,10 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
-        <v>0.30814127299999999</v>
+        <v>0.31207885400000002</v>
       </c>
       <c r="I298" t="s">
         <v>47</v>
@@ -8262,10 +8262,10 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
-        <v>0.30726439500000002</v>
+        <v>0.30814127299999999</v>
       </c>
       <c r="I299" t="s">
         <v>47</v>
@@ -8288,10 +8288,10 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
-        <v>0.27924473399999999</v>
+        <v>0.30726439500000002</v>
       </c>
       <c r="I300" t="s">
         <v>47</v>
@@ -8314,10 +8314,10 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
-        <v>0.30143915399999999</v>
+        <v>0.27924473399999999</v>
       </c>
       <c r="I301" t="s">
         <v>47</v>
@@ -8340,10 +8340,10 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
-        <v>0.27670751700000001</v>
+        <v>0.30143915399999999</v>
       </c>
       <c r="I302" t="s">
         <v>47</v>
@@ -8366,10 +8366,10 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
-        <v>0.29345175200000001</v>
+        <v>0.27670751700000001</v>
       </c>
       <c r="I303" t="s">
         <v>47</v>
@@ -8392,10 +8392,10 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
-        <v>0.27642073299999997</v>
+        <v>0.29345175200000001</v>
       </c>
       <c r="I304" t="s">
         <v>47</v>
@@ -8418,10 +8418,10 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
-        <v>0.28989398599999999</v>
+        <v>0.27642073299999997</v>
       </c>
       <c r="I305" t="s">
         <v>47</v>
@@ -8444,10 +8444,10 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
-        <v>0.29722649499999998</v>
+        <v>0.28989398599999999</v>
       </c>
       <c r="I306" t="s">
         <v>47</v>
@@ -8470,10 +8470,10 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
-        <v>0.300842204</v>
+        <v>0.29722649499999998</v>
       </c>
       <c r="I307" t="s">
         <v>47</v>
@@ -8496,10 +8496,10 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
-        <v>0.26236584299999999</v>
+        <v>0.300842204</v>
       </c>
       <c r="I308" t="s">
         <v>47</v>
@@ -8522,10 +8522,10 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
-        <v>0.29743174</v>
+        <v>0.26236584299999999</v>
       </c>
       <c r="I309" t="s">
         <v>47</v>
@@ -8548,10 +8548,10 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
-        <v>0.31442167399999998</v>
+        <v>0.29743174</v>
       </c>
       <c r="I310" t="s">
         <v>47</v>
@@ -8574,10 +8574,10 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
-        <v>0.31237580999999998</v>
+        <v>0.31442167399999998</v>
       </c>
       <c r="I311" t="s">
         <v>47</v>
@@ -8600,10 +8600,10 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
-        <v>0.28465049100000001</v>
+        <v>0.31237580999999998</v>
       </c>
       <c r="I312" t="s">
         <v>47</v>
@@ -8626,10 +8626,10 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
-        <v>0.29892490300000002</v>
+        <v>0.28465049100000001</v>
       </c>
       <c r="I313" t="s">
         <v>47</v>
@@ -8652,7 +8652,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.29892490300000002</v>
@@ -8678,7 +8678,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.29892490300000002</v>
@@ -8704,7 +8704,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.29892490300000002</v>
@@ -8716,11 +8716,37 @@
         <v>67</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.29892490300000002</v>
+      </c>
+      <c r="I317" t="s">
+        <v>47</v>
+      </c>
+      <c r="J317" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_hydroror.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_hydroror.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834D2C3-7168-524B-BD07-1D07BE040C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD01A0-9C3F-D24D-A2D8-CD6B1A43D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -675,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -781,10 +790,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -802,16 +811,16 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
       <c r="G8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -823,26 +832,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -852,17 +853,18 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -871,17 +873,17 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
@@ -889,7 +891,9 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -898,19 +902,18 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -920,19 +923,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -944,22 +950,16 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="4">
-        <v>22200</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>53</v>
+      <c r="G14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -971,13 +971,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -992,19 +995,22 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="G16">
-        <v>0.84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
+      <c r="G16" s="4">
+        <v>22200</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1016,19 +1022,16 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>10</v>
+      <c r="H17" t="s">
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1039,27 +1042,22 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>13561</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
+        <v>0.84</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1068,27 +1066,22 @@
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>13898</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1104,10 +1097,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>15219</v>
+        <v>13561</v>
       </c>
       <c r="H20" t="s">
         <v>52</v>
@@ -1133,10 +1126,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>15451</v>
+        <v>13898</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -1162,10 +1155,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>16590</v>
+        <v>15219</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1191,10 +1184,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>16148</v>
+        <v>15451</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1220,10 +1213,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>13669</v>
+        <v>16590</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1249,10 +1242,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>14695</v>
+        <v>16148</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -1278,10 +1271,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>14966</v>
+        <v>13669</v>
       </c>
       <c r="H26" t="s">
         <v>52</v>
@@ -1307,10 +1300,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>16640</v>
+        <v>14695</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -1336,10 +1329,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>17566</v>
+        <v>14966</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
@@ -1365,10 +1358,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>17751</v>
+        <v>16640</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
@@ -1394,10 +1387,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>17625</v>
+        <v>17566</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -1423,10 +1416,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>15398</v>
+        <v>17751</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -1452,10 +1445,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>16039</v>
+        <v>17625</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -1481,10 +1474,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>14998</v>
+        <v>15398</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -1510,10 +1503,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>15819</v>
+        <v>16039</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -1539,10 +1532,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>16547</v>
+        <v>14998</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -1568,10 +1561,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>16686</v>
+        <v>15819</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -1597,10 +1590,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>16110</v>
+        <v>16547</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -1626,10 +1619,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>16030</v>
+        <v>16686</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -1655,10 +1648,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>14733</v>
+        <v>16110</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -1684,10 +1677,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>17832</v>
+        <v>16030</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -1713,10 +1706,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>17759</v>
+        <v>14733</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -1742,10 +1735,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>17243</v>
+        <v>17832</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -1771,10 +1764,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>16595</v>
+        <v>17759</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -1800,10 +1793,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>16574</v>
+        <v>17243</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -1829,10 +1822,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>15946</v>
+        <v>16595</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -1858,10 +1851,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>16908</v>
+        <v>16574</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -1887,10 +1880,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>17700</v>
+        <v>15946</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
@@ -1910,22 +1903,25 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>3292</v>
+        <v>16908</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1936,28 +1932,25 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>3292</v>
+        <v>17700</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1974,7 +1967,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>3292</v>
@@ -2000,7 +1993,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>3292</v>
@@ -2011,6 +2004,12 @@
       <c r="I51" t="s">
         <v>47</v>
       </c>
+      <c r="J51" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2026,7 +2025,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
         <v>3292</v>
@@ -2052,7 +2051,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
         <v>3292</v>
@@ -2078,22 +2077,16 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>3381</v>
+        <v>3292</v>
       </c>
       <c r="H54" t="s">
         <v>57</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
-      </c>
-      <c r="J54" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2110,10 +2103,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>3381</v>
+        <v>3292</v>
       </c>
       <c r="H55" t="s">
         <v>57</v>
@@ -2136,7 +2129,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
         <v>3381</v>
@@ -2147,6 +2140,12 @@
       <c r="I56" t="s">
         <v>47</v>
       </c>
+      <c r="J56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -2162,7 +2161,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
         <v>3381</v>
@@ -2188,7 +2187,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
         <v>3381</v>
@@ -2214,22 +2213,16 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>3475</v>
+        <v>3381</v>
       </c>
       <c r="H59" t="s">
         <v>57</v>
       </c>
       <c r="I59" t="s">
         <v>47</v>
-      </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2246,10 +2239,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>3475</v>
+        <v>3381</v>
       </c>
       <c r="H60" t="s">
         <v>57</v>
@@ -2272,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
         <v>3475</v>
@@ -2283,6 +2276,12 @@
       <c r="I61" t="s">
         <v>47</v>
       </c>
+      <c r="J61" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2298,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
         <v>3475</v>
@@ -2324,7 +2323,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
         <v>3475</v>
@@ -2350,19 +2349,16 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>3640</v>
+        <v>3475</v>
       </c>
       <c r="H64" t="s">
         <v>57</v>
       </c>
       <c r="I64" t="s">
         <v>47</v>
-      </c>
-      <c r="J64" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,10 +2375,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>3640</v>
+        <v>3475</v>
       </c>
       <c r="H65" t="s">
         <v>57</v>
@@ -2405,10 +2401,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>3657.8</v>
+        <v>3640</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
@@ -2434,10 +2430,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>3657.8</v>
+        <v>3640</v>
       </c>
       <c r="H67" t="s">
         <v>57</v>
@@ -2460,10 +2456,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>3768.02</v>
+        <v>3657.8</v>
       </c>
       <c r="H68" t="s">
         <v>57</v>
@@ -2489,19 +2485,16 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>3810.03</v>
+        <v>3657.8</v>
       </c>
       <c r="H69" t="s">
         <v>57</v>
       </c>
       <c r="I69" t="s">
         <v>47</v>
-      </c>
-      <c r="J69" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2518,10 +2511,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>3839.85</v>
+        <v>3768.02</v>
       </c>
       <c r="H70" t="s">
         <v>57</v>
@@ -2547,10 +2540,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>3853.55</v>
+        <v>3810.03</v>
       </c>
       <c r="H71" t="s">
         <v>57</v>
@@ -2576,10 +2569,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>3893.73</v>
+        <v>3839.85</v>
       </c>
       <c r="H72" t="s">
         <v>57</v>
@@ -2605,10 +2598,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>3941.32</v>
+        <v>3853.55</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
@@ -2634,10 +2627,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>4004.07</v>
+        <v>3893.73</v>
       </c>
       <c r="H74" t="s">
         <v>57</v>
@@ -2663,10 +2656,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>4053.2</v>
+        <v>3941.32</v>
       </c>
       <c r="H75" t="s">
         <v>57</v>
@@ -2692,10 +2685,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>4132.76</v>
+        <v>4004.07</v>
       </c>
       <c r="H76" t="s">
         <v>57</v>
@@ -2721,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>4161.6499999999996</v>
+        <v>4053.2</v>
       </c>
       <c r="H77" t="s">
         <v>57</v>
@@ -2744,16 +2737,16 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>4132.76</v>
       </c>
       <c r="H78" t="s">
         <v>57</v>
@@ -2761,8 +2754,8 @@
       <c r="I78" t="s">
         <v>47</v>
       </c>
-      <c r="L78" t="s">
-        <v>61</v>
+      <c r="J78" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2773,16 +2766,16 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4161.6499999999996</v>
       </c>
       <c r="H79" t="s">
         <v>57</v>
@@ -2790,8 +2783,8 @@
       <c r="I79" t="s">
         <v>47</v>
       </c>
-      <c r="L79" t="s">
-        <v>61</v>
+      <c r="J79" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2808,7 +2801,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2837,7 +2830,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2866,7 +2859,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2895,7 +2888,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2924,10 +2917,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>57</v>
@@ -2953,7 +2946,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2982,10 +2975,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s">
         <v>57</v>
@@ -3011,7 +3004,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3040,7 +3033,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3069,10 +3062,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
@@ -3098,7 +3091,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3127,10 +3120,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H91" t="s">
         <v>57</v>
@@ -3156,7 +3149,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3185,7 +3178,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3214,10 +3207,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
         <v>57</v>
@@ -3243,7 +3236,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3272,10 +3265,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>17.8</v>
+        <v>165</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
@@ -3301,7 +3294,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3330,10 +3323,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>110.22</v>
+        <v>17.8</v>
       </c>
       <c r="H98" t="s">
         <v>57</v>
@@ -3359,10 +3352,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>42.01</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>57</v>
@@ -3388,10 +3381,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>29.82</v>
+        <v>110.22</v>
       </c>
       <c r="H100" t="s">
         <v>57</v>
@@ -3417,10 +3410,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>13.7</v>
+        <v>42.01</v>
       </c>
       <c r="H101" t="s">
         <v>57</v>
@@ -3446,10 +3439,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>40.18</v>
+        <v>29.82</v>
       </c>
       <c r="H102" t="s">
         <v>57</v>
@@ -3475,10 +3468,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>47.59</v>
+        <v>13.7</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
@@ -3504,10 +3497,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>62.75</v>
+        <v>40.18</v>
       </c>
       <c r="H104" t="s">
         <v>57</v>
@@ -3533,10 +3526,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>49.13</v>
+        <v>47.59</v>
       </c>
       <c r="H105" t="s">
         <v>57</v>
@@ -3562,10 +3555,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>79.56</v>
+        <v>62.75</v>
       </c>
       <c r="H106" t="s">
         <v>57</v>
@@ -3591,10 +3584,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
-        <v>28.89</v>
+        <v>49.13</v>
       </c>
       <c r="H107" t="s">
         <v>57</v>
@@ -3614,16 +3607,16 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>79.56</v>
       </c>
       <c r="H108" t="s">
         <v>57</v>
@@ -3643,16 +3636,16 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="H109" t="s">
         <v>57</v>
@@ -3678,7 +3671,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3707,7 +3700,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3736,7 +3729,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3765,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3794,7 +3787,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3823,7 +3816,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3852,7 +3845,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3881,7 +3874,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3910,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3939,7 +3932,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3968,7 +3961,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3997,7 +3990,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4026,7 +4019,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4055,7 +4048,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4084,7 +4077,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4113,7 +4106,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4142,7 +4135,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4171,7 +4164,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4200,7 +4193,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4229,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4258,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4287,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4316,7 +4309,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4345,7 +4338,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4374,7 +4367,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4403,7 +4396,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4432,7 +4425,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4461,7 +4454,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4484,16 +4477,25 @@
         <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>57</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
+      </c>
+      <c r="L138" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4504,16 +4506,25 @@
         <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>57</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
+      </c>
+      <c r="L139" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4530,7 +4541,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4550,7 +4561,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4570,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4590,7 +4601,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4610,7 +4621,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4630,7 +4641,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4650,7 +4661,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4670,7 +4681,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4690,7 +4701,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4710,7 +4721,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4730,7 +4741,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4750,7 +4761,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4770,7 +4781,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4790,7 +4801,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4810,7 +4821,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4830,7 +4841,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4850,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4870,7 +4881,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -4890,7 +4901,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -4910,7 +4921,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -4930,7 +4941,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -4950,7 +4961,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -4970,22 +4981,10 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
-      </c>
-      <c r="G162">
-        <v>82.5</v>
-      </c>
-      <c r="H162" t="s">
-        <v>62</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
-      </c>
-      <c r="J162" t="s">
-        <v>63</v>
-      </c>
-      <c r="L162" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -5002,7 +5001,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5022,10 +5021,22 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G164">
+        <v>82.5</v>
+      </c>
+      <c r="H164" t="s">
+        <v>62</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
+      </c>
+      <c r="J164" t="s">
+        <v>63</v>
+      </c>
+      <c r="L164" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -5042,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5062,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5082,7 +5093,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5096,13 +5107,13 @@
         <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5116,13 +5127,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5142,7 +5153,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5162,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5182,7 +5193,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5202,7 +5213,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5222,7 +5233,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5242,7 +5253,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5262,13 +5273,13 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -5282,13 +5293,13 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -5302,13 +5313,13 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -5322,13 +5333,13 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -5342,13 +5353,13 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -5362,13 +5373,13 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -5382,13 +5393,13 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -5402,13 +5413,13 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -5422,13 +5433,13 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -5442,13 +5453,13 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -5462,13 +5473,13 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -5482,13 +5493,13 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -5502,13 +5513,13 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -5522,13 +5533,13 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -5542,13 +5553,13 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -5562,13 +5573,13 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -5582,25 +5593,13 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
-      </c>
-      <c r="G192">
-        <v>5500</v>
-      </c>
-      <c r="H192" t="s">
-        <v>62</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
       </c>
-      <c r="J192" t="s">
-        <v>63</v>
-      </c>
-      <c r="L192" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -5614,13 +5613,13 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -5634,13 +5633,25 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G194">
+        <v>5500</v>
+      </c>
+      <c r="H194" t="s">
+        <v>62</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" t="s">
+        <v>63</v>
+      </c>
+      <c r="L194" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -5654,13 +5665,13 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -5674,13 +5685,13 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -5694,53 +5705,53 @@
         <v>39</v>
       </c>
       <c r="E197">
+        <v>2017</v>
+      </c>
+      <c r="I197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" t="s">
+        <v>43</v>
+      </c>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198">
+        <v>2018</v>
+      </c>
+      <c r="I198" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199">
         <v>2019</v>
       </c>
-      <c r="I197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>16</v>
-      </c>
-      <c r="B198" t="s">
-        <v>43</v>
-      </c>
-      <c r="C198" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" t="s">
-        <v>39</v>
-      </c>
-      <c r="E198">
-        <v>1990</v>
-      </c>
-      <c r="I198" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>16</v>
-      </c>
-      <c r="B199" t="s">
-        <v>43</v>
-      </c>
-      <c r="C199" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" t="s">
-        <v>39</v>
-      </c>
-      <c r="E199">
-        <v>1991</v>
-      </c>
       <c r="I199" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -5754,13 +5765,13 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -5774,13 +5785,13 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -5794,13 +5805,13 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -5814,13 +5825,13 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -5834,13 +5845,13 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -5854,13 +5865,13 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -5874,13 +5885,13 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -5894,13 +5905,13 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5914,7 +5925,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -5934,7 +5945,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -5954,7 +5965,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -5974,7 +5985,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -5994,7 +6005,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6014,7 +6025,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6034,7 +6045,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6054,7 +6065,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6074,7 +6085,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6094,7 +6105,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6114,7 +6125,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6134,7 +6145,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6154,7 +6165,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6174,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6194,22 +6205,10 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
-      </c>
-      <c r="G222">
-        <v>5</v>
-      </c>
-      <c r="H222" t="s">
-        <v>65</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
-      </c>
-      <c r="J222" t="s">
-        <v>63</v>
-      </c>
-      <c r="L222" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6226,7 +6225,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6246,10 +6245,22 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G224">
+        <v>5</v>
+      </c>
+      <c r="H224" t="s">
+        <v>65</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
+      </c>
+      <c r="J224" t="s">
+        <v>63</v>
+      </c>
+      <c r="L224" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6266,7 +6277,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6286,7 +6297,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6306,7 +6317,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6320,25 +6331,16 @@
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>57</v>
+        <v>2018</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
-      </c>
-      <c r="L228" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6349,25 +6351,16 @@
         <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>57</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
-      </c>
-      <c r="L229" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6384,7 +6377,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6413,7 +6406,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6442,7 +6435,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6471,7 +6464,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6500,7 +6493,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6529,7 +6522,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6558,7 +6551,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6587,7 +6580,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6616,7 +6609,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6645,7 +6638,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6674,7 +6667,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6703,7 +6696,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6732,7 +6725,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6761,7 +6754,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6790,7 +6783,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6819,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6848,7 +6841,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6877,7 +6870,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6906,7 +6899,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6935,7 +6928,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6964,7 +6957,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6993,7 +6986,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7022,7 +7015,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7051,7 +7044,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7080,7 +7073,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7109,7 +7102,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7138,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7167,7 +7160,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7190,22 +7183,25 @@
         <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>57</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
-      <c r="J258" t="s">
-        <v>67</v>
+      <c r="L258" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7216,22 +7212,25 @@
         <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.48193489699999997</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>57</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
       </c>
-      <c r="J259" t="s">
-        <v>67</v>
+      <c r="L259" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7248,10 +7247,10 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.52774263899999996</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
@@ -7274,10 +7273,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
-        <v>0.53578760199999997</v>
+        <v>0.48193489699999997</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -7300,10 +7299,10 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
-        <v>0.57528420899999999</v>
+        <v>0.52774263899999996</v>
       </c>
       <c r="I262" t="s">
         <v>47</v>
@@ -7326,10 +7325,10 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
-        <v>0.55995716799999995</v>
+        <v>0.53578760199999997</v>
       </c>
       <c r="I263" t="s">
         <v>47</v>
@@ -7352,10 +7351,10 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
-        <v>0.461516749</v>
+        <v>0.57528420899999999</v>
       </c>
       <c r="I264" t="s">
         <v>47</v>
@@ -7378,10 +7377,10 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
-        <v>0.49615836000000002</v>
+        <v>0.55995716799999995</v>
       </c>
       <c r="I265" t="s">
         <v>47</v>
@@ -7404,10 +7403,10 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
-        <v>0.505308337</v>
+        <v>0.461516749</v>
       </c>
       <c r="I266" t="s">
         <v>47</v>
@@ -7430,10 +7429,10 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
-        <v>0.56182886099999996</v>
+        <v>0.49615836000000002</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
@@ -7456,10 +7455,10 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
-        <v>0.59309409700000004</v>
+        <v>0.505308337</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
@@ -7482,10 +7481,10 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
-        <v>0.58312801800000003</v>
+        <v>0.56182886099999996</v>
       </c>
       <c r="I269" t="s">
         <v>47</v>
@@ -7508,10 +7507,10 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
-        <v>0.57898886400000005</v>
+        <v>0.59309409700000004</v>
       </c>
       <c r="I270" t="s">
         <v>47</v>
@@ -7534,10 +7533,10 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
-        <v>0.50583095199999994</v>
+        <v>0.58312801800000003</v>
       </c>
       <c r="I271" t="s">
         <v>47</v>
@@ -7560,10 +7559,10 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
-        <v>0.52688807900000001</v>
+        <v>0.57898886400000005</v>
       </c>
       <c r="I272" t="s">
         <v>47</v>
@@ -7586,10 +7585,10 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
-        <v>0.49269077900000002</v>
+        <v>0.50583095199999994</v>
       </c>
       <c r="I273" t="s">
         <v>47</v>
@@ -7612,10 +7611,10 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
-        <v>0.496104922</v>
+        <v>0.52688807900000001</v>
       </c>
       <c r="I274" t="s">
         <v>47</v>
@@ -7638,10 +7637,10 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
-        <v>0.51893597300000005</v>
+        <v>0.49269077900000002</v>
       </c>
       <c r="I275" t="s">
         <v>47</v>
@@ -7664,10 +7663,10 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
-        <v>0.52074867999999996</v>
+        <v>0.496104922</v>
       </c>
       <c r="I276" t="s">
         <v>47</v>
@@ -7690,10 +7689,10 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
-        <v>0.50277245800000003</v>
+        <v>0.51893597300000005</v>
       </c>
       <c r="I277" t="s">
         <v>47</v>
@@ -7716,10 +7715,10 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
-        <v>0.485641975</v>
+        <v>0.52074867999999996</v>
       </c>
       <c r="I278" t="s">
         <v>47</v>
@@ -7742,10 +7741,10 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
-        <v>0.44142679099999999</v>
+        <v>0.50277245800000003</v>
       </c>
       <c r="I279" t="s">
         <v>47</v>
@@ -7768,10 +7767,10 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
-        <v>0.53012915599999999</v>
+        <v>0.485641975</v>
       </c>
       <c r="I280" t="s">
         <v>47</v>
@@ -7794,10 +7793,10 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
-        <v>0.52608195199999996</v>
+        <v>0.44142679099999999</v>
       </c>
       <c r="I281" t="s">
         <v>47</v>
@@ -7820,10 +7819,10 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
-        <v>0.50552529199999996</v>
+        <v>0.53012915599999999</v>
       </c>
       <c r="I282" t="s">
         <v>47</v>
@@ -7846,10 +7845,10 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
-        <v>0.480652774</v>
+        <v>0.52608195199999996</v>
       </c>
       <c r="I283" t="s">
         <v>47</v>
@@ -7872,10 +7871,10 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
-        <v>0.47252149199999999</v>
+        <v>0.50552529199999996</v>
       </c>
       <c r="I284" t="s">
         <v>47</v>
@@ -7898,10 +7897,10 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
-        <v>0.44910678799999998</v>
+        <v>0.480652774</v>
       </c>
       <c r="I285" t="s">
         <v>47</v>
@@ -7924,10 +7923,10 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
-        <v>0.46703340799999998</v>
+        <v>0.47252149199999999</v>
       </c>
       <c r="I286" t="s">
         <v>47</v>
@@ -7950,10 +7949,10 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
-        <v>0.48551606800000002</v>
+        <v>0.44910678799999998</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
@@ -7970,16 +7969,16 @@
         <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.46703340799999998</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
@@ -7996,16 +7995,16 @@
         <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.25941034499999999</v>
+        <v>0.48551606800000002</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
@@ -8028,10 +8027,10 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.285397556</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
@@ -8054,10 +8053,10 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
-        <v>0.28045073300000001</v>
+        <v>0.25941034499999999</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
@@ -8080,10 +8079,10 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
-        <v>0.29838635099999999</v>
+        <v>0.285397556</v>
       </c>
       <c r="I292" t="s">
         <v>47</v>
@@ -8106,10 +8105,10 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
-        <v>0.302819901</v>
+        <v>0.28045073300000001</v>
       </c>
       <c r="I293" t="s">
         <v>47</v>
@@ -8132,10 +8131,10 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
-        <v>0.296544788</v>
+        <v>0.29838635099999999</v>
       </c>
       <c r="I294" t="s">
         <v>47</v>
@@ -8158,10 +8157,10 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
-        <v>0.27977765399999999</v>
+        <v>0.302819901</v>
       </c>
       <c r="I295" t="s">
         <v>47</v>
@@ -8184,10 +8183,10 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
-        <v>0.29173744000000001</v>
+        <v>0.296544788</v>
       </c>
       <c r="I296" t="s">
         <v>47</v>
@@ -8210,10 +8209,10 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
-        <v>0.314572672</v>
+        <v>0.27977765399999999</v>
       </c>
       <c r="I297" t="s">
         <v>47</v>
@@ -8236,10 +8235,10 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
-        <v>0.31207885400000002</v>
+        <v>0.29173744000000001</v>
       </c>
       <c r="I298" t="s">
         <v>47</v>
@@ -8262,10 +8261,10 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
-        <v>0.30814127299999999</v>
+        <v>0.314572672</v>
       </c>
       <c r="I299" t="s">
         <v>47</v>
@@ -8288,10 +8287,10 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
-        <v>0.30726439500000002</v>
+        <v>0.31207885400000002</v>
       </c>
       <c r="I300" t="s">
         <v>47</v>
@@ -8314,10 +8313,10 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
-        <v>0.27924473399999999</v>
+        <v>0.30814127299999999</v>
       </c>
       <c r="I301" t="s">
         <v>47</v>
@@ -8340,10 +8339,10 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
-        <v>0.30143915399999999</v>
+        <v>0.30726439500000002</v>
       </c>
       <c r="I302" t="s">
         <v>47</v>
@@ -8366,10 +8365,10 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
-        <v>0.27670751700000001</v>
+        <v>0.27924473399999999</v>
       </c>
       <c r="I303" t="s">
         <v>47</v>
@@ -8392,10 +8391,10 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
-        <v>0.29345175200000001</v>
+        <v>0.30143915399999999</v>
       </c>
       <c r="I304" t="s">
         <v>47</v>
@@ -8418,10 +8417,10 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
-        <v>0.27642073299999997</v>
+        <v>0.27670751700000001</v>
       </c>
       <c r="I305" t="s">
         <v>47</v>
@@ -8444,10 +8443,10 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
-        <v>0.28989398599999999</v>
+        <v>0.29345175200000001</v>
       </c>
       <c r="I306" t="s">
         <v>47</v>
@@ -8470,10 +8469,10 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
-        <v>0.29722649499999998</v>
+        <v>0.27642073299999997</v>
       </c>
       <c r="I307" t="s">
         <v>47</v>
@@ -8496,10 +8495,10 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
-        <v>0.300842204</v>
+        <v>0.28989398599999999</v>
       </c>
       <c r="I308" t="s">
         <v>47</v>
@@ -8522,10 +8521,10 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
-        <v>0.26236584299999999</v>
+        <v>0.29722649499999998</v>
       </c>
       <c r="I309" t="s">
         <v>47</v>
@@ -8548,10 +8547,10 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
-        <v>0.29743174</v>
+        <v>0.300842204</v>
       </c>
       <c r="I310" t="s">
         <v>47</v>
@@ -8574,10 +8573,10 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
-        <v>0.31442167399999998</v>
+        <v>0.26236584299999999</v>
       </c>
       <c r="I311" t="s">
         <v>47</v>
@@ -8600,10 +8599,10 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
-        <v>0.31237580999999998</v>
+        <v>0.29743174</v>
       </c>
       <c r="I312" t="s">
         <v>47</v>
@@ -8626,10 +8625,10 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
-        <v>0.28465049100000001</v>
+        <v>0.31442167399999998</v>
       </c>
       <c r="I313" t="s">
         <v>47</v>
@@ -8652,10 +8651,10 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
-        <v>0.29892490300000002</v>
+        <v>0.31237580999999998</v>
       </c>
       <c r="I314" t="s">
         <v>47</v>
@@ -8678,10 +8677,10 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
-        <v>0.29892490300000002</v>
+        <v>0.28465049100000001</v>
       </c>
       <c r="I315" t="s">
         <v>47</v>
@@ -8704,7 +8703,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.29892490300000002</v>
@@ -8730,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.29892490300000002</v>
@@ -8742,11 +8741,63 @@
         <v>67</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.29892490300000002</v>
+      </c>
+      <c r="I318" t="s">
+        <v>47</v>
+      </c>
+      <c r="J318" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.29892490300000002</v>
+      </c>
+      <c r="I319" t="s">
+        <v>47</v>
+      </c>
+      <c r="J319" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_hydroror.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_hydroror.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD01A0-9C3F-D24D-A2D8-CD6B1A43D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E99222-B87F-294C-8F51-97107E931700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -245,9 +245,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -255,6 +252,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -790,10 +793,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -811,10 +814,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -909,10 +912,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
